--- a/data/576/DOS/M014811.xlsx
+++ b/data/576/DOS/M014811.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,602 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>1975 1Q</t>
-  </si>
-  <si>
-    <t>1975 2Q</t>
-  </si>
-  <si>
-    <t>1975 3Q</t>
-  </si>
-  <si>
-    <t>1975 4Q</t>
-  </si>
-  <si>
-    <t>1976 1Q</t>
-  </si>
-  <si>
-    <t>1976 2Q</t>
-  </si>
-  <si>
-    <t>1976 3Q</t>
-  </si>
-  <si>
-    <t>1976 4Q</t>
-  </si>
-  <si>
-    <t>1977 1Q</t>
-  </si>
-  <si>
-    <t>1977 2Q</t>
-  </si>
-  <si>
-    <t>1977 3Q</t>
-  </si>
-  <si>
-    <t>1977 4Q</t>
-  </si>
-  <si>
-    <t>1978 1Q</t>
-  </si>
-  <si>
-    <t>1978 2Q</t>
-  </si>
-  <si>
-    <t>1978 3Q</t>
-  </si>
-  <si>
-    <t>1978 4Q</t>
-  </si>
-  <si>
-    <t>1979 1Q</t>
-  </si>
-  <si>
-    <t>1979 2Q</t>
-  </si>
-  <si>
-    <t>1979 3Q</t>
-  </si>
-  <si>
-    <t>1979 4Q</t>
-  </si>
-  <si>
-    <t>1980 1Q</t>
-  </si>
-  <si>
-    <t>1980 2Q</t>
-  </si>
-  <si>
-    <t>1980 3Q</t>
-  </si>
-  <si>
-    <t>1980 4Q</t>
-  </si>
-  <si>
-    <t>1981 1Q</t>
-  </si>
-  <si>
-    <t>1981 2Q</t>
-  </si>
-  <si>
-    <t>1981 3Q</t>
-  </si>
-  <si>
-    <t>1981 4Q</t>
-  </si>
-  <si>
-    <t>1982 1Q</t>
-  </si>
-  <si>
-    <t>1982 2Q</t>
-  </si>
-  <si>
-    <t>1982 3Q</t>
-  </si>
-  <si>
-    <t>1982 4Q</t>
-  </si>
-  <si>
-    <t>1983 1Q</t>
-  </si>
-  <si>
-    <t>1983 2Q</t>
-  </si>
-  <si>
-    <t>1983 3Q</t>
-  </si>
-  <si>
-    <t>1983 4Q</t>
-  </si>
-  <si>
-    <t>1984 1Q</t>
-  </si>
-  <si>
-    <t>1984 2Q</t>
-  </si>
-  <si>
-    <t>1984 3Q</t>
-  </si>
-  <si>
-    <t>1984 4Q</t>
-  </si>
-  <si>
-    <t>1985 1Q</t>
-  </si>
-  <si>
-    <t>1985 2Q</t>
-  </si>
-  <si>
-    <t>1985 3Q</t>
-  </si>
-  <si>
-    <t>1985 4Q</t>
-  </si>
-  <si>
-    <t>1986 1Q</t>
-  </si>
-  <si>
-    <t>1986 2Q</t>
-  </si>
-  <si>
-    <t>1986 3Q</t>
-  </si>
-  <si>
-    <t>1986 4Q</t>
-  </si>
-  <si>
-    <t>1987 1Q</t>
-  </si>
-  <si>
-    <t>1987 2Q</t>
-  </si>
-  <si>
-    <t>1987 3Q</t>
-  </si>
-  <si>
-    <t>1987 4Q</t>
-  </si>
-  <si>
-    <t>1988 1Q</t>
-  </si>
-  <si>
-    <t>1988 2Q</t>
-  </si>
-  <si>
-    <t>1988 3Q</t>
-  </si>
-  <si>
-    <t>1988 4Q</t>
-  </si>
-  <si>
-    <t>1989 1Q</t>
-  </si>
-  <si>
-    <t>1989 2Q</t>
-  </si>
-  <si>
-    <t>1989 3Q</t>
-  </si>
-  <si>
-    <t>1989 4Q</t>
-  </si>
-  <si>
-    <t>1990 1Q</t>
-  </si>
-  <si>
-    <t>1990 2Q</t>
-  </si>
-  <si>
-    <t>1990 3Q</t>
-  </si>
-  <si>
-    <t>1990 4Q</t>
-  </si>
-  <si>
-    <t>1991 1Q</t>
-  </si>
-  <si>
-    <t>1991 2Q</t>
-  </si>
-  <si>
-    <t>1991 3Q</t>
-  </si>
-  <si>
-    <t>1991 4Q</t>
-  </si>
-  <si>
-    <t>1992 1Q</t>
-  </si>
-  <si>
-    <t>1992 2Q</t>
-  </si>
-  <si>
-    <t>1992 3Q</t>
-  </si>
-  <si>
-    <t>1992 4Q</t>
-  </si>
-  <si>
-    <t>1993 1Q</t>
-  </si>
-  <si>
-    <t>1993 2Q</t>
-  </si>
-  <si>
-    <t>1993 3Q</t>
-  </si>
-  <si>
-    <t>1993 4Q</t>
-  </si>
-  <si>
-    <t>1994 1Q</t>
-  </si>
-  <si>
-    <t>1994 2Q</t>
-  </si>
-  <si>
-    <t>1994 3Q</t>
-  </si>
-  <si>
-    <t>1994 4Q</t>
-  </si>
-  <si>
-    <t>1995 1Q</t>
-  </si>
-  <si>
-    <t>1995 2Q</t>
-  </si>
-  <si>
-    <t>1995 3Q</t>
-  </si>
-  <si>
-    <t>1995 4Q</t>
-  </si>
-  <si>
-    <t>1996 1Q</t>
-  </si>
-  <si>
-    <t>1996 2Q</t>
-  </si>
-  <si>
-    <t>1996 3Q</t>
-  </si>
-  <si>
-    <t>1996 4Q</t>
-  </si>
-  <si>
-    <t>1997 1Q</t>
-  </si>
-  <si>
-    <t>1997 2Q</t>
-  </si>
-  <si>
-    <t>1997 3Q</t>
-  </si>
-  <si>
-    <t>1997 4Q</t>
-  </si>
-  <si>
-    <t>1998 1Q</t>
-  </si>
-  <si>
-    <t>1998 2Q</t>
-  </si>
-  <si>
-    <t>1998 3Q</t>
-  </si>
-  <si>
-    <t>1998 4Q</t>
-  </si>
-  <si>
-    <t>1999 1Q</t>
-  </si>
-  <si>
-    <t>1999 2Q</t>
-  </si>
-  <si>
-    <t>1999 3Q</t>
-  </si>
-  <si>
-    <t>1999 4Q</t>
-  </si>
-  <si>
-    <t>2000 1Q</t>
-  </si>
-  <si>
-    <t>2000 2Q</t>
-  </si>
-  <si>
-    <t>2000 3Q</t>
-  </si>
-  <si>
-    <t>2000 4Q</t>
-  </si>
-  <si>
-    <t>2001 1Q</t>
-  </si>
-  <si>
-    <t>2001 2Q</t>
-  </si>
-  <si>
-    <t>2001 3Q</t>
-  </si>
-  <si>
-    <t>2001 4Q</t>
-  </si>
-  <si>
-    <t>2002 1Q</t>
-  </si>
-  <si>
-    <t>2002 2Q</t>
-  </si>
-  <si>
-    <t>2002 3Q</t>
-  </si>
-  <si>
-    <t>2002 4Q</t>
-  </si>
-  <si>
-    <t>2003 1Q</t>
-  </si>
-  <si>
-    <t>2003 2Q</t>
-  </si>
-  <si>
-    <t>2003 3Q</t>
-  </si>
-  <si>
-    <t>2003 4Q</t>
-  </si>
-  <si>
-    <t>2004 1Q</t>
-  </si>
-  <si>
-    <t>2004 2Q</t>
-  </si>
-  <si>
-    <t>2004 3Q</t>
-  </si>
-  <si>
-    <t>2004 4Q</t>
-  </si>
-  <si>
-    <t>2005 1Q</t>
-  </si>
-  <si>
-    <t>2005 2Q</t>
-  </si>
-  <si>
-    <t>2005 3Q</t>
-  </si>
-  <si>
-    <t>2005 4Q</t>
-  </si>
-  <si>
-    <t>2006 1Q</t>
-  </si>
-  <si>
-    <t>2006 2Q</t>
-  </si>
-  <si>
-    <t>2006 3Q</t>
-  </si>
-  <si>
-    <t>2006 4Q</t>
-  </si>
-  <si>
-    <t>2007 1Q</t>
-  </si>
-  <si>
-    <t>2007 2Q</t>
-  </si>
-  <si>
-    <t>2007 3Q</t>
-  </si>
-  <si>
-    <t>2007 4Q</t>
-  </si>
-  <si>
-    <t>2008 1Q</t>
-  </si>
-  <si>
-    <t>2008 2Q</t>
-  </si>
-  <si>
-    <t>2008 3Q</t>
-  </si>
-  <si>
-    <t>2008 4Q</t>
-  </si>
-  <si>
-    <t>2009 1Q</t>
-  </si>
-  <si>
-    <t>2009 2Q</t>
-  </si>
-  <si>
-    <t>2009 3Q</t>
-  </si>
-  <si>
-    <t>2009 4Q</t>
-  </si>
-  <si>
-    <t>2010 1Q</t>
-  </si>
-  <si>
-    <t>2010 2Q</t>
-  </si>
-  <si>
-    <t>2010 3Q</t>
-  </si>
-  <si>
-    <t>2010 4Q</t>
-  </si>
-  <si>
-    <t>2011 1Q</t>
-  </si>
-  <si>
-    <t>2011 2Q</t>
-  </si>
-  <si>
-    <t>2011 3Q</t>
-  </si>
-  <si>
-    <t>2011 4Q</t>
-  </si>
-  <si>
-    <t>2012 1Q</t>
-  </si>
-  <si>
-    <t>2012 2Q</t>
-  </si>
-  <si>
-    <t>2012 3Q</t>
-  </si>
-  <si>
-    <t>2012 4Q</t>
-  </si>
-  <si>
-    <t>2013 1Q</t>
-  </si>
-  <si>
-    <t>2013 2Q</t>
-  </si>
-  <si>
-    <t>2013 3Q</t>
-  </si>
-  <si>
-    <t>2013 4Q</t>
-  </si>
-  <si>
-    <t>2014 1Q</t>
-  </si>
-  <si>
-    <t>2014 2Q</t>
-  </si>
-  <si>
-    <t>2014 3Q</t>
-  </si>
-  <si>
-    <t>2014 4Q</t>
-  </si>
-  <si>
-    <t>2015 1Q</t>
-  </si>
-  <si>
-    <t>2015 2Q</t>
-  </si>
-  <si>
-    <t>2015 3Q</t>
-  </si>
-  <si>
-    <t>2015 4Q</t>
-  </si>
-  <si>
-    <t>2016 1Q</t>
-  </si>
-  <si>
-    <t>2016 2Q</t>
-  </si>
-  <si>
-    <t>2016 3Q</t>
-  </si>
-  <si>
-    <t>2016 4Q</t>
-  </si>
-  <si>
-    <t>2017 1Q</t>
-  </si>
-  <si>
-    <t>2017 2Q</t>
-  </si>
-  <si>
-    <t>2017 3Q</t>
-  </si>
-  <si>
-    <t>2017 4Q</t>
-  </si>
-  <si>
-    <t>2018 1Q</t>
-  </si>
-  <si>
-    <t>2018 2Q</t>
-  </si>
-  <si>
-    <t>2018 3Q</t>
-  </si>
-  <si>
-    <t>2018 4Q</t>
-  </si>
-  <si>
-    <t>2019 1Q</t>
-  </si>
-  <si>
-    <t>2019 2Q</t>
-  </si>
-  <si>
-    <t>2019 3Q</t>
-  </si>
-  <si>
-    <t>2019 4Q</t>
-  </si>
-  <si>
-    <t>2020 1Q</t>
-  </si>
-  <si>
-    <t>2020 2Q</t>
-  </si>
-  <si>
-    <t>2020 3Q</t>
-  </si>
-  <si>
-    <t>2020 4Q</t>
-  </si>
-  <si>
-    <t>2021 1Q</t>
-  </si>
-  <si>
-    <t>2021 2Q</t>
-  </si>
-  <si>
-    <t>2021 3Q</t>
-  </si>
-  <si>
-    <t>GDP In Chained (2015) Dollars</t>
-  </si>
-  <si>
-    <t>Private Consumption Expenditure</t>
-  </si>
-  <si>
-    <t>Government Consumption Expenditure</t>
-  </si>
-  <si>
-    <t>Gross Fixed Capital Formation</t>
-  </si>
-  <si>
-    <t>Changes In Inventories</t>
-  </si>
-  <si>
-    <t>Net Exports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Exports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Imports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Statistical Discrepancy</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GF10"/>
+  <dimension ref="A1:GG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,1141 +366,1529 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:188">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1975 1Q</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1975 2Q</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1975 3Q</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1975 4Q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1976 1Q</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1976 2Q</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1976 3Q</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1976 4Q</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1977 1Q</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1977 2Q</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1977 3Q</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1977 4Q</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1978 1Q</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1978 2Q</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1978 3Q</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1978 4Q</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1979 1Q</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1979 2Q</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1979 3Q</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1979 4Q</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1980 1Q</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1980 2Q</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1980 3Q</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1980 4Q</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1981 1Q</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1981 2Q</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1981 3Q</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1981 4Q</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1982 1Q</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1982 2Q</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1982 3Q</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1982 4Q</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1983 1Q</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1983 2Q</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1983 3Q</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1983 4Q</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1984 1Q</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1984 2Q</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1984 3Q</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1984 4Q</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1985 1Q</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1985 2Q</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1985 3Q</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1985 4Q</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1986 1Q</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1986 2Q</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1986 3Q</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1986 4Q</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1987 1Q</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1987 2Q</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1987 3Q</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1987 4Q</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1988 1Q</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1988 2Q</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1988 3Q</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1988 4Q</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1989 1Q</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1989 2Q</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1989 3Q</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1989 4Q</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1990 1Q</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1990 2Q</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1990 3Q</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1990 4Q</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1991 1Q</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1991 2Q</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1991 3Q</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991 4Q</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1992 1Q</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1992 2Q</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1992 3Q</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1992 4Q</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1993 1Q</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1993 2Q</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1993 3Q</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1993 4Q</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1994 1Q</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1994 2Q</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1994 3Q</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1994 4Q</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1995 1Q</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1995 2Q</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1995 3Q</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1995 4Q</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1996 1Q</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1996 2Q</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996 3Q</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1996 4Q</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1997 1Q</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1997 2Q</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1997 3Q</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1997 4Q</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1998 1Q</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1998 2Q</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1998 3Q</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1998 4Q</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1999 1Q</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1999 2Q</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1999 3Q</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1999 4Q</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2000 1Q</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2000 2Q</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000 3Q</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2000 4Q</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2001 1Q</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2001 2Q</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2001 3Q</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2001 4Q</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2002 1Q</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2002 2Q</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2002 3Q</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2002 4Q</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2003 1Q</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2003 2Q</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2003 3Q</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2003 4Q</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2004 1Q</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2004 2Q</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2004 3Q</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004 4Q</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2005 1Q</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2005 2Q</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2005 3Q</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2005 4Q</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2006 1Q</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2006 2Q</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2006 3Q</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2006 4Q</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007 1Q</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2007 2Q</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2007 3Q</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2007 4Q</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2008 1Q</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2008 2Q</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2008 3Q</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2008 4Q</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2009 1Q</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2009 2Q</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009 3Q</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2009 4Q</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2010 1Q</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2010 2Q</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2010 3Q</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2010 4Q</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2011 1Q</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011 2Q</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2011 3Q</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2011 4Q</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2012 1Q</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2012 2Q</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2012 3Q</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2012 4Q</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2013 1Q</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2013 2Q</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013 3Q</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2013 4Q</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2014 1Q</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2014 2Q</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2014 3Q</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2014 4Q</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2015 1Q</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2015 2Q</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2015 3Q</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2015 4Q</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016 1Q</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2016 2Q</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2016 3Q</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2016 4Q</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2017 1Q</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2017 2Q</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2017 3Q</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017 4Q</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2018 1Q</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2018 2Q</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2018 3Q</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2018 4Q</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2019 1Q</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2019 2Q</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2019 3Q</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2019 4Q</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020 1Q</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2020 2Q</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2020 3Q</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2020 4Q</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2021 1Q</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2021 2Q</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2021 3Q</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2021 4Q</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:188">
-      <c r="A2" s="1" t="s">
-        <v>188</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GDP In Chained (2015) Dollars</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>7361.9</v>
+        <v>7367.3</v>
       </c>
       <c r="C2" t="n">
-        <v>7558.6</v>
+        <v>7564.2</v>
       </c>
       <c r="D2" t="n">
-        <v>7954.6</v>
+        <v>7960.5</v>
       </c>
       <c r="E2" t="n">
-        <v>8128.6</v>
+        <v>8134.6</v>
       </c>
       <c r="F2" t="n">
-        <v>7966.1</v>
+        <v>7972</v>
       </c>
       <c r="G2" t="n">
-        <v>8118.5</v>
+        <v>8124.5</v>
       </c>
       <c r="H2" t="n">
-        <v>8530.700000000001</v>
+        <v>8537</v>
       </c>
       <c r="I2" t="n">
-        <v>8694.200000000001</v>
+        <v>8700.6</v>
       </c>
       <c r="J2" t="n">
-        <v>8461.6</v>
+        <v>8467.799999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>8732.9</v>
+        <v>8739.299999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>9074.9</v>
+        <v>9081.6</v>
       </c>
       <c r="M2" t="n">
-        <v>9322.700000000001</v>
+        <v>9329.6</v>
       </c>
       <c r="N2" t="n">
-        <v>8935.6</v>
+        <v>8942.200000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>9273.299999999999</v>
+        <v>9280.1</v>
       </c>
       <c r="P2" t="n">
-        <v>9877.299999999999</v>
+        <v>9884.6</v>
       </c>
       <c r="Q2" t="n">
+        <v>10281.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9793.4</v>
+      </c>
+      <c r="S2" t="n">
         <v>10274</v>
       </c>
-      <c r="R2" t="n">
-        <v>9786.200000000001</v>
-      </c>
-      <c r="S2" t="n">
-        <v>10266.4</v>
-      </c>
       <c r="T2" t="n">
-        <v>10684.1</v>
+        <v>10692</v>
       </c>
       <c r="U2" t="n">
-        <v>11288.5</v>
+        <v>11296.8</v>
       </c>
       <c r="V2" t="n">
-        <v>10914.1</v>
+        <v>10922.2</v>
       </c>
       <c r="W2" t="n">
-        <v>11326</v>
+        <v>11334.3</v>
       </c>
       <c r="X2" t="n">
-        <v>11788.6</v>
+        <v>11797.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>12246.6</v>
+        <v>12255.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>12037</v>
+        <v>12045.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>12623.8</v>
+        <v>12633.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>13103.6</v>
+        <v>13113.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>13516.1</v>
+        <v>13526.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>13130.8</v>
+        <v>13140.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13553.7</v>
+        <v>13563.7</v>
       </c>
       <c r="AF2" t="n">
-        <v>13947.4</v>
+        <v>13957.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>14290.6</v>
+        <v>14301.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>14123.7</v>
+        <v>14134.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>14638.5</v>
+        <v>14649.2</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15140.1</v>
+        <v>15151.3</v>
       </c>
       <c r="AK2" t="n">
-        <v>15718.6</v>
+        <v>15730.2</v>
       </c>
       <c r="AL2" t="n">
-        <v>15663.9</v>
+        <v>15675.4</v>
       </c>
       <c r="AM2" t="n">
-        <v>16072.7</v>
+        <v>16084.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>16476.3</v>
+        <v>16488.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>16650.1</v>
+        <v>16662.4</v>
       </c>
       <c r="AP2" t="n">
-        <v>16277.7</v>
+        <v>16289.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16062.9</v>
+        <v>16074.7</v>
       </c>
       <c r="AR2" t="n">
-        <v>16094.5</v>
+        <v>16106.3</v>
       </c>
       <c r="AS2" t="n">
-        <v>16023.9</v>
+        <v>16035.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>15622.5</v>
+        <v>15634</v>
       </c>
       <c r="AU2" t="n">
-        <v>16075.7</v>
+        <v>16087.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>16555.6</v>
+        <v>16567.8</v>
       </c>
       <c r="AW2" t="n">
-        <v>17070.8</v>
+        <v>17083.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>16881.1</v>
+        <v>16893.6</v>
       </c>
       <c r="AY2" t="n">
-        <v>17710.3</v>
+        <v>17723.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>18583.8</v>
+        <v>18597.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>19203</v>
+        <v>19217.1</v>
       </c>
       <c r="BB2" t="n">
-        <v>18762</v>
+        <v>18775.8</v>
       </c>
       <c r="BC2" t="n">
-        <v>19835.7</v>
+        <v>19850.3</v>
       </c>
       <c r="BD2" t="n">
-        <v>20667.6</v>
+        <v>20682.9</v>
       </c>
       <c r="BE2" t="n">
-        <v>21265.4</v>
+        <v>21281</v>
       </c>
       <c r="BF2" t="n">
-        <v>20617.5</v>
+        <v>20632.7</v>
       </c>
       <c r="BG2" t="n">
-        <v>22100.9</v>
+        <v>22117.2</v>
       </c>
       <c r="BH2" t="n">
-        <v>22717</v>
+        <v>22733.8</v>
       </c>
       <c r="BI2" t="n">
-        <v>23276.1</v>
+        <v>23293.3</v>
       </c>
       <c r="BJ2" t="n">
-        <v>23506.4</v>
+        <v>23523.7</v>
       </c>
       <c r="BK2" t="n">
-        <v>24035.3</v>
+        <v>24053</v>
       </c>
       <c r="BL2" t="n">
-        <v>24727.4</v>
+        <v>24745.6</v>
       </c>
       <c r="BM2" t="n">
-        <v>25154.8</v>
+        <v>25173.4</v>
       </c>
       <c r="BN2" t="n">
-        <v>25014.1</v>
+        <v>25032.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>25605.2</v>
+        <v>25624</v>
       </c>
       <c r="BP2" t="n">
-        <v>26526</v>
+        <v>26545.5</v>
       </c>
       <c r="BQ2" t="n">
-        <v>26794.8</v>
+        <v>26814.6</v>
       </c>
       <c r="BR2" t="n">
-        <v>26432</v>
+        <v>26453.9</v>
       </c>
       <c r="BS2" t="n">
-        <v>26983.6</v>
+        <v>27004</v>
       </c>
       <c r="BT2" t="n">
-        <v>28303.8</v>
+        <v>28322.4</v>
       </c>
       <c r="BU2" t="n">
-        <v>29122</v>
+        <v>29142.8</v>
       </c>
       <c r="BV2" t="n">
-        <v>28799.5</v>
+        <v>28824.6</v>
       </c>
       <c r="BW2" t="n">
-        <v>30309.8</v>
+        <v>30333</v>
       </c>
       <c r="BX2" t="n">
-        <v>31561</v>
+        <v>31580.6</v>
       </c>
       <c r="BY2" t="n">
-        <v>32876.6</v>
+        <v>32896.3</v>
       </c>
       <c r="BZ2" t="n">
-        <v>32683.4</v>
+        <v>32712.4</v>
       </c>
       <c r="CA2" t="n">
-        <v>33442.8</v>
+        <v>33467.3</v>
       </c>
       <c r="CB2" t="n">
-        <v>35285.4</v>
+        <v>35306.3</v>
       </c>
       <c r="CC2" t="n">
-        <v>35846.1</v>
+        <v>35866.6</v>
       </c>
       <c r="CD2" t="n">
-        <v>34375.8</v>
+        <v>34431.9</v>
       </c>
       <c r="CE2" t="n">
-        <v>35865.9</v>
+        <v>35948.6</v>
       </c>
       <c r="CF2" t="n">
-        <v>38257</v>
+        <v>38217.2</v>
       </c>
       <c r="CG2" t="n">
-        <v>38642.8</v>
+        <v>38610.5</v>
       </c>
       <c r="CH2" t="n">
-        <v>38443.3</v>
+        <v>38460.7</v>
       </c>
       <c r="CI2" t="n">
-        <v>39029.7</v>
+        <v>39047.4</v>
       </c>
       <c r="CJ2" t="n">
-        <v>39815.5</v>
+        <v>39833.6</v>
       </c>
       <c r="CK2" t="n">
-        <v>40846.5</v>
+        <v>40865</v>
       </c>
       <c r="CL2" t="n">
-        <v>40648.8</v>
+        <v>40669</v>
       </c>
       <c r="CM2" t="n">
-        <v>42726.8</v>
+        <v>42743.9</v>
       </c>
       <c r="CN2" t="n">
-        <v>44174.2</v>
+        <v>44192.3</v>
       </c>
       <c r="CO2" t="n">
-        <v>43741.9</v>
+        <v>43758.3</v>
       </c>
       <c r="CP2" t="n">
-        <v>41264.4</v>
+        <v>41282</v>
       </c>
       <c r="CQ2" t="n">
-        <v>41691.8</v>
+        <v>41711.4</v>
       </c>
       <c r="CR2" t="n">
-        <v>41954.9</v>
+        <v>41975.6</v>
       </c>
       <c r="CS2" t="n">
-        <v>42620.1</v>
+        <v>42639.9</v>
       </c>
       <c r="CT2" t="n">
-        <v>42173.4</v>
+        <v>42185</v>
       </c>
       <c r="CU2" t="n">
-        <v>43959.4</v>
+        <v>43975.5</v>
       </c>
       <c r="CV2" t="n">
-        <v>45328.5</v>
+        <v>45349.6</v>
       </c>
       <c r="CW2" t="n">
-        <v>45659.4</v>
+        <v>45683.3</v>
       </c>
       <c r="CX2" t="n">
-        <v>45864.8</v>
+        <v>45997.5</v>
       </c>
       <c r="CY2" t="n">
-        <v>47521.1</v>
+        <v>47584.6</v>
       </c>
       <c r="CZ2" t="n">
-        <v>49703.4</v>
+        <v>49671.1</v>
       </c>
       <c r="DA2" t="n">
-        <v>50041.6</v>
+        <v>49955.5</v>
       </c>
       <c r="DB2" t="n">
-        <v>48477.2</v>
+        <v>48495.8</v>
       </c>
       <c r="DC2" t="n">
-        <v>47807.2</v>
+        <v>47825.5</v>
       </c>
       <c r="DD2" t="n">
-        <v>47195.8</v>
+        <v>47214</v>
       </c>
       <c r="DE2" t="n">
-        <v>47586.1</v>
+        <v>47604.4</v>
       </c>
       <c r="DF2" t="n">
-        <v>47934.8</v>
+        <v>47959.6</v>
       </c>
       <c r="DG2" t="n">
-        <v>49817.5</v>
+        <v>49845.5</v>
       </c>
       <c r="DH2" t="n">
-        <v>50318.7</v>
+        <v>50336.3</v>
       </c>
       <c r="DI2" t="n">
-        <v>50474.8</v>
+        <v>50497.4</v>
       </c>
       <c r="DJ2" t="n">
-        <v>49928.3</v>
+        <v>49958.8</v>
       </c>
       <c r="DK2" t="n">
-        <v>49687.8</v>
+        <v>49717.3</v>
       </c>
       <c r="DL2" t="n">
-        <v>52989.6</v>
+        <v>53017.6</v>
       </c>
       <c r="DM2" t="n">
-        <v>54945.7</v>
+        <v>54979.7</v>
       </c>
       <c r="DN2" t="n">
-        <v>55049.7</v>
+        <v>55124</v>
       </c>
       <c r="DO2" t="n">
-        <v>56332.1</v>
+        <v>56432.5</v>
       </c>
       <c r="DP2" t="n">
-        <v>57378.1</v>
+        <v>57486.8</v>
       </c>
       <c r="DQ2" t="n">
-        <v>59172.2</v>
+        <v>59272.8</v>
       </c>
       <c r="DR2" t="n">
-        <v>57900.2</v>
+        <v>58110.3</v>
       </c>
       <c r="DS2" t="n">
-        <v>59802.7</v>
+        <v>59959</v>
       </c>
       <c r="DT2" t="n">
-        <v>62296.2</v>
+        <v>62367.3</v>
       </c>
       <c r="DU2" t="n">
-        <v>64706.6</v>
+        <v>64698</v>
       </c>
       <c r="DV2" t="n">
-        <v>63926.6</v>
+        <v>64039.2</v>
       </c>
       <c r="DW2" t="n">
-        <v>65104.9</v>
+        <v>65220</v>
       </c>
       <c r="DX2" t="n">
-        <v>67616.2</v>
+        <v>67735.7</v>
       </c>
       <c r="DY2" t="n">
-        <v>70094.10000000001</v>
+        <v>70218.39999999999</v>
       </c>
       <c r="DZ2" t="n">
-        <v>69394.39999999999</v>
+        <v>69521.8</v>
       </c>
       <c r="EA2" t="n">
-        <v>71640.60000000001</v>
+        <v>71768.39999999999</v>
       </c>
       <c r="EB2" t="n">
-        <v>75040.2</v>
+        <v>75167.39999999999</v>
       </c>
       <c r="EC2" t="n">
-        <v>74732.39999999999</v>
+        <v>74862.39999999999</v>
       </c>
       <c r="ED2" t="n">
-        <v>75065.5</v>
+        <v>75196.5</v>
       </c>
       <c r="EE2" t="n">
-        <v>74012.7</v>
+        <v>74147.7</v>
       </c>
       <c r="EF2" t="n">
-        <v>74983.60000000001</v>
+        <v>75107.89999999999</v>
       </c>
       <c r="EG2" t="n">
-        <v>72178.8</v>
+        <v>72296.60000000001</v>
       </c>
       <c r="EH2" t="n">
-        <v>69276.2</v>
+        <v>69395.7</v>
       </c>
       <c r="EI2" t="n">
-        <v>73148.3</v>
+        <v>73277.89999999999</v>
       </c>
       <c r="EJ2" t="n">
-        <v>77100.8</v>
+        <v>77238.8</v>
       </c>
       <c r="EK2" t="n">
-        <v>77073.7</v>
+        <v>77216</v>
       </c>
       <c r="EL2" t="n">
-        <v>80373.5</v>
+        <v>80698.60000000001</v>
       </c>
       <c r="EM2" t="n">
-        <v>86784</v>
+        <v>86924</v>
       </c>
       <c r="EN2" t="n">
-        <v>85121.60000000001</v>
+        <v>85183.5</v>
       </c>
       <c r="EO2" t="n">
-        <v>87402.8</v>
+        <v>87464.60000000001</v>
       </c>
       <c r="EP2" t="n">
-        <v>87964.39999999999</v>
+        <v>88086</v>
       </c>
       <c r="EQ2" t="n">
-        <v>89456.8</v>
+        <v>89460.8</v>
       </c>
       <c r="ER2" t="n">
-        <v>91794.60000000001</v>
+        <v>91787.2</v>
       </c>
       <c r="ES2" t="n">
-        <v>91994.7</v>
+        <v>92084.3</v>
       </c>
       <c r="ET2" t="n">
-        <v>92266.89999999999</v>
+        <v>92354.3</v>
       </c>
       <c r="EU2" t="n">
-        <v>94966.89999999999</v>
+        <v>94982.89999999999</v>
       </c>
       <c r="EV2" t="n">
-        <v>93664.10000000001</v>
+        <v>93656.60000000001</v>
       </c>
       <c r="EW2" t="n">
-        <v>96428.39999999999</v>
+        <v>96455.2</v>
       </c>
       <c r="EX2" t="n">
-        <v>95412.39999999999</v>
+        <v>95523</v>
       </c>
       <c r="EY2" t="n">
-        <v>99365.89999999999</v>
+        <v>99358.7</v>
       </c>
       <c r="EZ2" t="n">
-        <v>99419.10000000001</v>
+        <v>99385.2</v>
       </c>
       <c r="FA2" t="n">
-        <v>101381.3</v>
+        <v>101366.2</v>
       </c>
       <c r="FB2" t="n">
-        <v>99519.10000000001</v>
+        <v>99610.7</v>
       </c>
       <c r="FC2" t="n">
-        <v>102650.8</v>
+        <v>102643</v>
       </c>
       <c r="FD2" t="n">
-        <v>103016.3</v>
+        <v>103017.9</v>
       </c>
       <c r="FE2" t="n">
-        <v>105970.4</v>
+        <v>105931.8</v>
       </c>
       <c r="FF2" t="n">
-        <v>102478.4</v>
+        <v>102572.2</v>
       </c>
       <c r="FG2" t="n">
-        <v>105879.3</v>
+        <v>105849.7</v>
       </c>
       <c r="FH2" t="n">
-        <v>106808</v>
+        <v>106783.2</v>
       </c>
       <c r="FI2" t="n">
-        <v>108278.4</v>
+        <v>108239</v>
       </c>
       <c r="FJ2" t="n">
-        <v>105671.9</v>
+        <v>105961.9</v>
       </c>
       <c r="FK2" t="n">
-        <v>108824.4</v>
+        <v>109024.3</v>
       </c>
       <c r="FL2" t="n">
-        <v>109857</v>
+        <v>110098.6</v>
       </c>
       <c r="FM2" t="n">
-        <v>113187.4</v>
+        <v>113441.1</v>
       </c>
       <c r="FN2" t="n">
-        <v>110539.7</v>
+        <v>110938.6</v>
       </c>
       <c r="FO2" t="n">
-        <v>112747.4</v>
+        <v>113141.9</v>
       </c>
       <c r="FP2" t="n">
-        <v>115677.6</v>
+        <v>116108.1</v>
       </c>
       <c r="FQ2" t="n">
-        <v>118354.5</v>
+        <v>118778.9</v>
       </c>
       <c r="FR2" t="n">
-        <v>115681.9</v>
+        <v>116445.3</v>
       </c>
       <c r="FS2" t="n">
-        <v>118184.6</v>
+        <v>118936.6</v>
       </c>
       <c r="FT2" t="n">
-        <v>119233.2</v>
+        <v>119866</v>
       </c>
       <c r="FU2" t="n">
-        <v>120214.1</v>
+        <v>120523.8</v>
       </c>
       <c r="FV2" t="n">
-        <v>117541.3</v>
+        <v>118003.3</v>
       </c>
       <c r="FW2" t="n">
-        <v>119799</v>
+        <v>120075.5</v>
       </c>
       <c r="FX2" t="n">
-        <v>120525.5</v>
+        <v>120755.3</v>
       </c>
       <c r="FY2" t="n">
-        <v>121815.1</v>
+        <v>122150.5</v>
       </c>
       <c r="FZ2" t="n">
-        <v>117588.4</v>
+        <v>119413.5</v>
       </c>
       <c r="GA2" t="n">
-        <v>103828.8</v>
+        <v>105447.8</v>
       </c>
       <c r="GB2" t="n">
-        <v>113497.3</v>
+        <v>115195.7</v>
       </c>
       <c r="GC2" t="n">
-        <v>118906.7</v>
+        <v>120999.9</v>
       </c>
       <c r="GD2" t="n">
-        <v>119367.5</v>
+        <v>121785.1</v>
       </c>
       <c r="GE2" t="n">
-        <v>119660</v>
+        <v>122091.6</v>
       </c>
       <c r="GF2" t="n">
-        <v>121514.4</v>
+        <v>123844.4</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>128440.5</v>
       </c>
     </row>
-    <row r="3" spans="1:188">
-      <c r="A3" s="1" t="s">
-        <v>189</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Private Consumption Expenditure</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>4365</v>
@@ -2591,78 +2383,83 @@
         <v>41171</v>
       </c>
       <c r="FJ3" t="n">
-        <v>40864.6</v>
+        <v>40884.8</v>
       </c>
       <c r="FK3" t="n">
-        <v>40376</v>
+        <v>40374.2</v>
       </c>
       <c r="FL3" t="n">
-        <v>39485.3</v>
+        <v>39441.4</v>
       </c>
       <c r="FM3" t="n">
-        <v>41756.7</v>
+        <v>41694.5</v>
       </c>
       <c r="FN3" t="n">
-        <v>40970.9</v>
+        <v>41016</v>
       </c>
       <c r="FO3" t="n">
-        <v>41432.7</v>
+        <v>41464.8</v>
       </c>
       <c r="FP3" t="n">
-        <v>41174.6</v>
+        <v>41146.9</v>
       </c>
       <c r="FQ3" t="n">
-        <v>44000.1</v>
+        <v>43939.8</v>
       </c>
       <c r="FR3" t="n">
-        <v>42564.5</v>
+        <v>42552.9</v>
       </c>
       <c r="FS3" t="n">
-        <v>43306.1</v>
+        <v>43428.9</v>
       </c>
       <c r="FT3" t="n">
-        <v>42876.2</v>
+        <v>42817.6</v>
       </c>
       <c r="FU3" t="n">
-        <v>45490.1</v>
+        <v>45398.2</v>
       </c>
       <c r="FV3" t="n">
-        <v>45010.1</v>
+        <v>45013.1</v>
       </c>
       <c r="FW3" t="n">
-        <v>44687.9</v>
+        <v>44632.2</v>
       </c>
       <c r="FX3" t="n">
-        <v>44229.2</v>
+        <v>44115.9</v>
       </c>
       <c r="FY3" t="n">
-        <v>45978</v>
+        <v>46007.5</v>
       </c>
       <c r="FZ3" t="n">
-        <v>43720.4</v>
+        <v>44296.8</v>
       </c>
       <c r="GA3" t="n">
-        <v>31550.1</v>
+        <v>32405.2</v>
       </c>
       <c r="GB3" t="n">
-        <v>38470.9</v>
+        <v>38837.9</v>
       </c>
       <c r="GC3" t="n">
-        <v>40760</v>
+        <v>41092.2</v>
       </c>
       <c r="GD3" t="n">
-        <v>40634</v>
+        <v>41242.9</v>
       </c>
       <c r="GE3" t="n">
-        <v>39202.5</v>
+        <v>39871.6</v>
       </c>
       <c r="GF3" t="n">
-        <v>39696</v>
+        <v>40428.3</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>42145.5</v>
       </c>
     </row>
-    <row r="4" spans="1:188">
-      <c r="A4" s="1" t="s">
-        <v>190</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Government Consumption Expenditure</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1067.2</v>
@@ -3157,78 +2954,83 @@
         <v>11210</v>
       </c>
       <c r="FJ4" t="n">
-        <v>12402.9</v>
+        <v>12412</v>
       </c>
       <c r="FK4" t="n">
-        <v>10161.1</v>
+        <v>10152.1</v>
       </c>
       <c r="FL4" t="n">
-        <v>10680.2</v>
+        <v>10683.9</v>
       </c>
       <c r="FM4" t="n">
-        <v>11564.3</v>
+        <v>11510.9</v>
       </c>
       <c r="FN4" t="n">
-        <v>12817.7</v>
+        <v>12842.6</v>
       </c>
       <c r="FO4" t="n">
-        <v>10410.3</v>
+        <v>10425.6</v>
       </c>
       <c r="FP4" t="n">
-        <v>11351.5</v>
+        <v>11379.3</v>
       </c>
       <c r="FQ4" t="n">
-        <v>11613.6</v>
+        <v>11646.9</v>
       </c>
       <c r="FR4" t="n">
-        <v>13836.3</v>
+        <v>13833.5</v>
       </c>
       <c r="FS4" t="n">
-        <v>10538.5</v>
+        <v>10558.3</v>
       </c>
       <c r="FT4" t="n">
-        <v>11436.3</v>
+        <v>11433.7</v>
       </c>
       <c r="FU4" t="n">
-        <v>11841.5</v>
+        <v>11848.8</v>
       </c>
       <c r="FV4" t="n">
-        <v>14383.5</v>
+        <v>14372</v>
       </c>
       <c r="FW4" t="n">
-        <v>10707.7</v>
+        <v>10721.2</v>
       </c>
       <c r="FX4" t="n">
-        <v>11728.7</v>
+        <v>11741.3</v>
       </c>
       <c r="FY4" t="n">
-        <v>12444.3</v>
+        <v>12437.4</v>
       </c>
       <c r="FZ4" t="n">
-        <v>15416.3</v>
+        <v>15427.5</v>
       </c>
       <c r="GA4" t="n">
-        <v>12824.9</v>
+        <v>12883</v>
       </c>
       <c r="GB4" t="n">
-        <v>13584.1</v>
+        <v>13884</v>
       </c>
       <c r="GC4" t="n">
-        <v>13642</v>
+        <v>13643.8</v>
       </c>
       <c r="GD4" t="n">
-        <v>16534.4</v>
+        <v>16889</v>
       </c>
       <c r="GE4" t="n">
-        <v>13016.4</v>
+        <v>12976.3</v>
       </c>
       <c r="GF4" t="n">
-        <v>14026.6</v>
+        <v>14342.4</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>14131.1</v>
       </c>
     </row>
-    <row r="5" spans="1:188">
-      <c r="A5" s="1" t="s">
-        <v>191</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>2170.8</v>
@@ -3723,78 +3525,83 @@
         <v>30276.3</v>
       </c>
       <c r="FJ5" t="n">
-        <v>27445.4</v>
+        <v>27443.2</v>
       </c>
       <c r="FK5" t="n">
-        <v>29760.6</v>
+        <v>29775.7</v>
       </c>
       <c r="FL5" t="n">
-        <v>28231.2</v>
+        <v>28305</v>
       </c>
       <c r="FM5" t="n">
-        <v>30417.2</v>
+        <v>30469.5</v>
       </c>
       <c r="FN5" t="n">
-        <v>28761.1</v>
+        <v>28779.4</v>
       </c>
       <c r="FO5" t="n">
-        <v>30825.5</v>
+        <v>30830.2</v>
       </c>
       <c r="FP5" t="n">
-        <v>30163.6</v>
+        <v>30139.1</v>
       </c>
       <c r="FQ5" t="n">
-        <v>32361.3</v>
+        <v>32362.8</v>
       </c>
       <c r="FR5" t="n">
-        <v>28611.5</v>
+        <v>28458.2</v>
       </c>
       <c r="FS5" t="n">
-        <v>30042</v>
+        <v>29821.2</v>
       </c>
       <c r="FT5" t="n">
-        <v>28432.3</v>
+        <v>28196.3</v>
       </c>
       <c r="FU5" t="n">
-        <v>29732.8</v>
+        <v>29409.9</v>
       </c>
       <c r="FV5" t="n">
-        <v>28667.5</v>
+        <v>28566.1</v>
       </c>
       <c r="FW5" t="n">
-        <v>30152.9</v>
+        <v>29974.6</v>
       </c>
       <c r="FX5" t="n">
-        <v>29459.8</v>
+        <v>29432.2</v>
       </c>
       <c r="FY5" t="n">
-        <v>29911</v>
+        <v>29868.2</v>
       </c>
       <c r="FZ5" t="n">
-        <v>29108.1</v>
+        <v>28628.2</v>
       </c>
       <c r="GA5" t="n">
-        <v>21740.3</v>
+        <v>20876.6</v>
       </c>
       <c r="GB5" t="n">
-        <v>22669.8</v>
+        <v>23082.2</v>
       </c>
       <c r="GC5" t="n">
-        <v>28491.6</v>
+        <v>28569.2</v>
       </c>
       <c r="GD5" t="n">
-        <v>27657.9</v>
+        <v>29534.3</v>
       </c>
       <c r="GE5" t="n">
-        <v>28474.4</v>
+        <v>29824.9</v>
       </c>
       <c r="GF5" t="n">
-        <v>28421.9</v>
+        <v>30655.7</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>30954.2</v>
       </c>
     </row>
-    <row r="6" spans="1:188">
-      <c r="A6" s="1" t="s">
-        <v>192</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Changes In Inventories</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>221.3</v>
@@ -4289,78 +4096,83 @@
         <v>-3596.2</v>
       </c>
       <c r="FJ6" t="n">
-        <v>865.3</v>
+        <v>866.1</v>
       </c>
       <c r="FK6" t="n">
-        <v>-1604.2</v>
+        <v>-1603</v>
       </c>
       <c r="FL6" t="n">
-        <v>-691.5</v>
+        <v>-690.6</v>
       </c>
       <c r="FM6" t="n">
-        <v>3122.5</v>
+        <v>3124.1</v>
       </c>
       <c r="FN6" t="n">
-        <v>1237</v>
+        <v>1240.1</v>
       </c>
       <c r="FO6" t="n">
-        <v>1775.4</v>
+        <v>1771.9</v>
       </c>
       <c r="FP6" t="n">
-        <v>2027.6</v>
+        <v>2039.4</v>
       </c>
       <c r="FQ6" t="n">
-        <v>3496.4</v>
+        <v>3493.1</v>
       </c>
       <c r="FR6" t="n">
-        <v>1425.8</v>
+        <v>1416.9</v>
       </c>
       <c r="FS6" t="n">
-        <v>2017.5</v>
+        <v>2024.1</v>
       </c>
       <c r="FT6" t="n">
-        <v>3166.6</v>
+        <v>3194.7</v>
       </c>
       <c r="FU6" t="n">
-        <v>3347.3</v>
+        <v>3332</v>
       </c>
       <c r="FV6" t="n">
-        <v>1824.9</v>
+        <v>1911.3</v>
       </c>
       <c r="FW6" t="n">
-        <v>1657.6</v>
+        <v>1818.4</v>
       </c>
       <c r="FX6" t="n">
-        <v>1663.4</v>
+        <v>1578.3</v>
       </c>
       <c r="FY6" t="n">
-        <v>2077.4</v>
+        <v>2376.9</v>
       </c>
       <c r="FZ6" t="n">
-        <v>995</v>
+        <v>1311.1</v>
       </c>
       <c r="GA6" t="n">
-        <v>1182.1</v>
+        <v>1519.8</v>
       </c>
       <c r="GB6" t="n">
-        <v>1289.8</v>
+        <v>1599.1</v>
       </c>
       <c r="GC6" t="n">
-        <v>1203.7</v>
+        <v>1526.1</v>
       </c>
       <c r="GD6" t="n">
-        <v>936</v>
+        <v>1208.5</v>
       </c>
       <c r="GE6" t="n">
-        <v>899.7</v>
+        <v>1143.3</v>
       </c>
       <c r="GF6" t="n">
-        <v>981.6</v>
+        <v>1265.5</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>1519</v>
       </c>
     </row>
-    <row r="7" spans="1:188">
-      <c r="A7" s="1" t="s">
-        <v>193</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Net Exports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>-377.9</v>
@@ -4855,78 +4667,83 @@
         <v>30364.6</v>
       </c>
       <c r="FJ7" t="n">
-        <v>24198</v>
+        <v>24201.1</v>
       </c>
       <c r="FK7" t="n">
-        <v>29894.6</v>
+        <v>29934.6</v>
       </c>
       <c r="FL7" t="n">
-        <v>33532.6</v>
+        <v>33577.2</v>
       </c>
       <c r="FM7" t="n">
-        <v>26849.1</v>
+        <v>26892.6</v>
       </c>
       <c r="FN7" t="n">
-        <v>28810.5</v>
+        <v>28612.1</v>
       </c>
       <c r="FO7" t="n">
-        <v>29712.5</v>
+        <v>29494.9</v>
       </c>
       <c r="FP7" t="n">
-        <v>30734.5</v>
+        <v>31110.7</v>
       </c>
       <c r="FQ7" t="n">
-        <v>29052.8</v>
+        <v>29385.1</v>
       </c>
       <c r="FR7" t="n">
-        <v>28973.6</v>
+        <v>28790.9</v>
       </c>
       <c r="FS7" t="n">
-        <v>33796.5</v>
+        <v>33440.4</v>
       </c>
       <c r="FT7" t="n">
-        <v>34412.2</v>
+        <v>35092.7</v>
       </c>
       <c r="FU7" t="n">
-        <v>31927.7</v>
+        <v>32660.7</v>
       </c>
       <c r="FV7" t="n">
-        <v>29095.1</v>
+        <v>30326</v>
       </c>
       <c r="FW7" t="n">
-        <v>33028.9</v>
+        <v>33232</v>
       </c>
       <c r="FX7" t="n">
-        <v>33677.3</v>
+        <v>34992.7</v>
       </c>
       <c r="FY7" t="n">
-        <v>33053.1</v>
+        <v>33653.5</v>
       </c>
       <c r="FZ7" t="n">
-        <v>29929.8</v>
+        <v>30585.1</v>
       </c>
       <c r="GA7" t="n">
-        <v>37821.2</v>
+        <v>38606.5</v>
       </c>
       <c r="GB7" t="n">
-        <v>39419.3</v>
+        <v>39544.5</v>
       </c>
       <c r="GC7" t="n">
-        <v>36588.4</v>
+        <v>38284.6</v>
       </c>
       <c r="GD7" t="n">
-        <v>35407.5</v>
+        <v>34933.3</v>
       </c>
       <c r="GE7" t="n">
-        <v>40050.1</v>
+        <v>40499.6</v>
       </c>
       <c r="GF7" t="n">
-        <v>38748.9</v>
+        <v>38846.9</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>37110.8</v>
       </c>
     </row>
-    <row r="8" spans="1:188">
-      <c r="A8" s="1" t="s">
-        <v>194</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Exports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>3951.5</v>
@@ -5421,78 +5238,83 @@
         <v>192787.9</v>
       </c>
       <c r="FJ8" t="n">
-        <v>178831.1</v>
+        <v>179025.6</v>
       </c>
       <c r="FK8" t="n">
-        <v>189744.3</v>
+        <v>189985.2</v>
       </c>
       <c r="FL8" t="n">
-        <v>192145.8</v>
+        <v>192467.5</v>
       </c>
       <c r="FM8" t="n">
-        <v>193842.4</v>
+        <v>194148.5</v>
       </c>
       <c r="FN8" t="n">
-        <v>193016.2</v>
+        <v>193597.2</v>
       </c>
       <c r="FO8" t="n">
-        <v>199477.9</v>
+        <v>200168</v>
       </c>
       <c r="FP8" t="n">
-        <v>205766.7</v>
+        <v>206938.5</v>
       </c>
       <c r="FQ8" t="n">
-        <v>209854.9</v>
+        <v>210663.6</v>
       </c>
       <c r="FR8" t="n">
-        <v>212419.7</v>
+        <v>213340.9</v>
       </c>
       <c r="FS8" t="n">
-        <v>221986.2</v>
+        <v>220248.9</v>
       </c>
       <c r="FT8" t="n">
-        <v>221066.9</v>
+        <v>221834.6</v>
       </c>
       <c r="FU8" t="n">
-        <v>214982.9</v>
+        <v>217284.2</v>
       </c>
       <c r="FV8" t="n">
-        <v>209816</v>
+        <v>211748.2</v>
       </c>
       <c r="FW8" t="n">
-        <v>219017</v>
+        <v>218303.5</v>
       </c>
       <c r="FX8" t="n">
-        <v>217051.1</v>
+        <v>219307</v>
       </c>
       <c r="FY8" t="n">
-        <v>225877</v>
+        <v>226006.9</v>
       </c>
       <c r="FZ8" t="n">
-        <v>218204.3</v>
+        <v>229712.8</v>
       </c>
       <c r="GA8" t="n">
-        <v>191851.4</v>
+        <v>202757.4</v>
       </c>
       <c r="GB8" t="n">
-        <v>206170.9</v>
+        <v>216588.7</v>
       </c>
       <c r="GC8" t="n">
-        <v>217872.2</v>
+        <v>224140.4</v>
       </c>
       <c r="GD8" t="n">
-        <v>214977.5</v>
+        <v>227805.9</v>
       </c>
       <c r="GE8" t="n">
-        <v>220379.1</v>
+        <v>231483</v>
       </c>
       <c r="GF8" t="n">
-        <v>219212.5</v>
+        <v>231557.4</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>241753.7</v>
       </c>
     </row>
-    <row r="9" spans="1:188">
-      <c r="A9" s="1" t="s">
-        <v>195</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Imports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>4329.4</v>
@@ -5987,639 +5809,647 @@
         <v>162423.3</v>
       </c>
       <c r="FJ9" t="n">
-        <v>154633</v>
+        <v>154824.5</v>
       </c>
       <c r="FK9" t="n">
-        <v>159849.7</v>
+        <v>160050.6</v>
       </c>
       <c r="FL9" t="n">
-        <v>158613.1</v>
+        <v>158890.3</v>
       </c>
       <c r="FM9" t="n">
-        <v>166993.3</v>
+        <v>167255.9</v>
       </c>
       <c r="FN9" t="n">
-        <v>164205.7</v>
+        <v>164985</v>
       </c>
       <c r="FO9" t="n">
-        <v>169765.4</v>
+        <v>170673.1</v>
       </c>
       <c r="FP9" t="n">
-        <v>175032.2</v>
+        <v>175827.7</v>
       </c>
       <c r="FQ9" t="n">
-        <v>180802</v>
+        <v>181278.4</v>
       </c>
       <c r="FR9" t="n">
-        <v>183446.1</v>
+        <v>184550</v>
       </c>
       <c r="FS9" t="n">
-        <v>188189.7</v>
+        <v>186808.5</v>
       </c>
       <c r="FT9" t="n">
-        <v>186654.7</v>
+        <v>186741.9</v>
       </c>
       <c r="FU9" t="n">
-        <v>183055.2</v>
+        <v>184623.6</v>
       </c>
       <c r="FV9" t="n">
-        <v>180720.9</v>
+        <v>181422.2</v>
       </c>
       <c r="FW9" t="n">
-        <v>185988.1</v>
+        <v>185071.5</v>
       </c>
       <c r="FX9" t="n">
-        <v>183373.8</v>
+        <v>184314.3</v>
       </c>
       <c r="FY9" t="n">
-        <v>192823.8</v>
+        <v>192353.4</v>
       </c>
       <c r="FZ9" t="n">
-        <v>188274.5</v>
+        <v>199127.7</v>
       </c>
       <c r="GA9" t="n">
-        <v>154030.1</v>
+        <v>164151</v>
       </c>
       <c r="GB9" t="n">
-        <v>166751.5</v>
+        <v>177044.2</v>
       </c>
       <c r="GC9" t="n">
-        <v>181283.8</v>
+        <v>185855.8</v>
       </c>
       <c r="GD9" t="n">
-        <v>179570</v>
+        <v>192872.6</v>
       </c>
       <c r="GE9" t="n">
-        <v>180329.1</v>
+        <v>190983.4</v>
       </c>
       <c r="GF9" t="n">
-        <v>180463.6</v>
+        <v>192710.6</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>204642.9</v>
       </c>
     </row>
-    <row r="10" spans="1:188">
-      <c r="A10" s="1" t="s">
-        <v>196</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Statistical Discrepancy</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>842.6</v>
+        <v>848</v>
       </c>
       <c r="C10" t="n">
-        <v>978</v>
+        <v>983.6</v>
       </c>
       <c r="D10" t="n">
-        <v>934.6</v>
+        <v>940.5</v>
       </c>
       <c r="E10" t="n">
-        <v>789.8</v>
+        <v>795.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1115.9</v>
+        <v>1121.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1023.7</v>
+        <v>1029.7</v>
       </c>
       <c r="H10" t="n">
-        <v>761.4</v>
+        <v>767.7</v>
       </c>
       <c r="I10" t="n">
-        <v>465.2</v>
+        <v>471.6</v>
       </c>
       <c r="J10" t="n">
-        <v>602.8</v>
+        <v>609</v>
       </c>
       <c r="K10" t="n">
-        <v>851.4</v>
+        <v>857.8</v>
       </c>
       <c r="L10" t="n">
-        <v>676.6</v>
+        <v>683.3</v>
       </c>
       <c r="M10" t="n">
-        <v>842.4</v>
+        <v>849.3</v>
       </c>
       <c r="N10" t="n">
-        <v>795</v>
+        <v>801.6</v>
       </c>
       <c r="O10" t="n">
-        <v>811.9</v>
+        <v>818.7</v>
       </c>
       <c r="P10" t="n">
-        <v>697</v>
+        <v>704.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1156.1</v>
+        <v>1163.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1142.2</v>
+        <v>1149.4</v>
       </c>
       <c r="S10" t="n">
-        <v>629.1</v>
+        <v>636.7</v>
       </c>
       <c r="T10" t="n">
-        <v>762.6</v>
+        <v>770.5</v>
       </c>
       <c r="U10" t="n">
-        <v>397.9</v>
+        <v>406.2</v>
       </c>
       <c r="V10" t="n">
-        <v>731.1</v>
+        <v>739.2</v>
       </c>
       <c r="W10" t="n">
-        <v>904.7</v>
+        <v>913</v>
       </c>
       <c r="X10" t="n">
-        <v>570.4</v>
+        <v>579.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>597.9</v>
+        <v>607</v>
       </c>
       <c r="Z10" t="n">
-        <v>1186.9</v>
+        <v>1195.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>1074.1</v>
+        <v>1083.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>1014.9</v>
+        <v>1024.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>738.2</v>
+        <v>748.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>1367.3</v>
+        <v>1377</v>
       </c>
       <c r="AE10" t="n">
-        <v>901.6</v>
+        <v>911.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>857.3</v>
+        <v>867.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>935.4</v>
+        <v>945.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>1198.2</v>
+        <v>1208.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>1203.1</v>
+        <v>1213.8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>630.4</v>
+        <v>641.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>697.7</v>
+        <v>709.3</v>
       </c>
       <c r="AL10" t="n">
-        <v>1147.2</v>
+        <v>1158.7</v>
       </c>
       <c r="AM10" t="n">
-        <v>1106.7</v>
+        <v>1118.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>948</v>
+        <v>960.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>906.4</v>
+        <v>918.7</v>
       </c>
       <c r="AP10" t="n">
-        <v>888.4</v>
+        <v>900.4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1340.2</v>
+        <v>1352</v>
       </c>
       <c r="AR10" t="n">
+        <v>1718.1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1240.6</v>
+      </c>
+      <c r="AT10" t="n">
         <v>1706.3</v>
       </c>
-      <c r="AS10" t="n">
-        <v>1228.7</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1694.8</v>
-      </c>
       <c r="AU10" t="n">
-        <v>1520.1</v>
+        <v>1531.9</v>
       </c>
       <c r="AV10" t="n">
-        <v>885</v>
+        <v>897.2</v>
       </c>
       <c r="AW10" t="n">
-        <v>1471.3</v>
+        <v>1483.9</v>
       </c>
       <c r="AX10" t="n">
-        <v>1729</v>
+        <v>1741.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>1358.3</v>
+        <v>1371.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1594.3</v>
+        <v>1608</v>
       </c>
       <c r="BA10" t="n">
-        <v>1817.1</v>
+        <v>1831.2</v>
       </c>
       <c r="BB10" t="n">
-        <v>1466.1</v>
+        <v>1479.9</v>
       </c>
       <c r="BC10" t="n">
-        <v>2045.9</v>
+        <v>2060.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>2047.3</v>
+        <v>2062.6</v>
       </c>
       <c r="BE10" t="n">
-        <v>1802.4</v>
+        <v>1818</v>
       </c>
       <c r="BF10" t="n">
-        <v>1729.6</v>
+        <v>1744.8</v>
       </c>
       <c r="BG10" t="n">
-        <v>1859.8</v>
+        <v>1876.1</v>
       </c>
       <c r="BH10" t="n">
-        <v>1885.9</v>
+        <v>1902.7</v>
       </c>
       <c r="BI10" t="n">
-        <v>2361.7</v>
+        <v>2378.9</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1884.7</v>
+        <v>1902</v>
       </c>
       <c r="BK10" t="n">
-        <v>2479.5</v>
+        <v>2497.2</v>
       </c>
       <c r="BL10" t="n">
-        <v>2608.8</v>
+        <v>2627</v>
       </c>
       <c r="BM10" t="n">
-        <v>2264.2</v>
+        <v>2282.8</v>
       </c>
       <c r="BN10" t="n">
-        <v>1704.6</v>
+        <v>1723</v>
       </c>
       <c r="BO10" t="n">
-        <v>2259.1</v>
+        <v>2277.9</v>
       </c>
       <c r="BP10" t="n">
-        <v>2387.6</v>
+        <v>2407.1</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2393</v>
+        <v>2412.8</v>
       </c>
       <c r="BR10" t="n">
-        <v>2736.5</v>
+        <v>2758.4</v>
       </c>
       <c r="BS10" t="n">
-        <v>1596</v>
+        <v>1616.4</v>
       </c>
       <c r="BT10" t="n">
-        <v>3024.2</v>
+        <v>3042.8</v>
       </c>
       <c r="BU10" t="n">
-        <v>1800</v>
+        <v>1820.8</v>
       </c>
       <c r="BV10" t="n">
-        <v>2103.3</v>
+        <v>2128.4</v>
       </c>
       <c r="BW10" t="n">
-        <v>1546</v>
+        <v>1569.2</v>
       </c>
       <c r="BX10" t="n">
-        <v>2840.8</v>
+        <v>2860.4</v>
       </c>
       <c r="BY10" t="n">
-        <v>2987.6</v>
+        <v>3007.3</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1753.7</v>
+        <v>1782.7</v>
       </c>
       <c r="CA10" t="n">
-        <v>3325.4</v>
+        <v>3349.9</v>
       </c>
       <c r="CB10" t="n">
-        <v>3959.3</v>
+        <v>3980.2</v>
       </c>
       <c r="CC10" t="n">
-        <v>4428.4</v>
+        <v>4448.9</v>
       </c>
       <c r="CD10" t="n">
-        <v>2858.5</v>
+        <v>2914.6</v>
       </c>
       <c r="CE10" t="n">
-        <v>2914.4</v>
+        <v>2997.1</v>
       </c>
       <c r="CF10" t="n">
-        <v>3521.6</v>
+        <v>3481.8</v>
       </c>
       <c r="CG10" t="n">
-        <v>3632</v>
+        <v>3599.7</v>
       </c>
       <c r="CH10" t="n">
-        <v>2801</v>
+        <v>2818.4</v>
       </c>
       <c r="CI10" t="n">
-        <v>3145.6</v>
+        <v>3163.3</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3384.8</v>
+        <v>3402.9</v>
       </c>
       <c r="CK10" t="n">
-        <v>3175</v>
+        <v>3193.5</v>
       </c>
       <c r="CL10" t="n">
-        <v>2794.2</v>
+        <v>2814.4</v>
       </c>
       <c r="CM10" t="n">
-        <v>3107</v>
+        <v>3124.1</v>
       </c>
       <c r="CN10" t="n">
-        <v>2886.1</v>
+        <v>2904.2</v>
       </c>
       <c r="CO10" t="n">
-        <v>2790.5</v>
+        <v>2806.9</v>
       </c>
       <c r="CP10" t="n">
-        <v>2708.6</v>
+        <v>2726.2</v>
       </c>
       <c r="CQ10" t="n">
-        <v>3018.2</v>
+        <v>3037.8</v>
       </c>
       <c r="CR10" t="n">
-        <v>3408.6</v>
+        <v>3429.3</v>
       </c>
       <c r="CS10" t="n">
-        <v>3221.6</v>
+        <v>3241.4</v>
       </c>
       <c r="CT10" t="n">
-        <v>2272.9</v>
+        <v>2284.5</v>
       </c>
       <c r="CU10" t="n">
-        <v>3332.6</v>
+        <v>3348.7</v>
       </c>
       <c r="CV10" t="n">
-        <v>2699.3</v>
+        <v>2720.4</v>
       </c>
       <c r="CW10" t="n">
-        <v>2637.5</v>
+        <v>2661.4</v>
       </c>
       <c r="CX10" t="n">
-        <v>2936.9</v>
+        <v>3069.6</v>
       </c>
       <c r="CY10" t="n">
-        <v>3016.6</v>
+        <v>3080.1</v>
       </c>
       <c r="CZ10" t="n">
-        <v>2777.6</v>
+        <v>2745.3</v>
       </c>
       <c r="DA10" t="n">
-        <v>2230.9</v>
+        <v>2144.8</v>
       </c>
       <c r="DB10" t="n">
-        <v>1611.9</v>
+        <v>1630.5</v>
       </c>
       <c r="DC10" t="n">
-        <v>1592.8</v>
+        <v>1611.1</v>
       </c>
       <c r="DD10" t="n">
-        <v>1932.5</v>
+        <v>1950.7</v>
       </c>
       <c r="DE10" t="n">
-        <v>1430.7</v>
+        <v>1449</v>
       </c>
       <c r="DF10" t="n">
-        <v>886.6</v>
+        <v>911.4</v>
       </c>
       <c r="DG10" t="n">
-        <v>1098.3</v>
+        <v>1126.3</v>
       </c>
       <c r="DH10" t="n">
-        <v>1382.4</v>
+        <v>1400</v>
       </c>
       <c r="DI10" t="n">
-        <v>1383.8</v>
+        <v>1406.4</v>
       </c>
       <c r="DJ10" t="n">
-        <v>893.6</v>
+        <v>924.1</v>
       </c>
       <c r="DK10" t="n">
-        <v>2225.4</v>
+        <v>2254.9</v>
       </c>
       <c r="DL10" t="n">
-        <v>2798.8</v>
+        <v>2826.8</v>
       </c>
       <c r="DM10" t="n">
-        <v>2794.2</v>
+        <v>2828.2</v>
       </c>
       <c r="DN10" t="n">
-        <v>2357</v>
+        <v>2431.3</v>
       </c>
       <c r="DO10" t="n">
-        <v>2289.4</v>
+        <v>2389.8</v>
       </c>
       <c r="DP10" t="n">
-        <v>1810.6</v>
+        <v>1919.3</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2196.3</v>
+        <v>2296.9</v>
       </c>
       <c r="DR10" t="n">
-        <v>2777.6</v>
+        <v>2987.7</v>
       </c>
       <c r="DS10" t="n">
-        <v>2022.9</v>
+        <v>2179.2</v>
       </c>
       <c r="DT10" t="n">
-        <v>2362.3</v>
+        <v>2433.4</v>
       </c>
       <c r="DU10" t="n">
-        <v>1190.1</v>
+        <v>1181.5</v>
       </c>
       <c r="DV10" t="n">
-        <v>2129.9</v>
+        <v>2242.5</v>
       </c>
       <c r="DW10" t="n">
-        <v>1708.8</v>
+        <v>1823.9</v>
       </c>
       <c r="DX10" t="n">
-        <v>1284.6</v>
+        <v>1404.1</v>
       </c>
       <c r="DY10" t="n">
-        <v>1548.6</v>
+        <v>1672.9</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1786.8</v>
+        <v>1914.2</v>
       </c>
       <c r="EA10" t="n">
-        <v>1338</v>
+        <v>1465.8</v>
       </c>
       <c r="EB10" t="n">
-        <v>609.2</v>
+        <v>736.4</v>
       </c>
       <c r="EC10" t="n">
-        <v>678.9</v>
+        <v>808.9</v>
       </c>
       <c r="ED10" t="n">
-        <v>2913.9</v>
+        <v>3044.9</v>
       </c>
       <c r="EE10" t="n">
-        <v>2559</v>
+        <v>2694</v>
       </c>
       <c r="EF10" t="n">
-        <v>1076.7</v>
+        <v>1201</v>
       </c>
       <c r="EG10" t="n">
-        <v>2573</v>
+        <v>2690.8</v>
       </c>
       <c r="EH10" t="n">
-        <v>2609.5</v>
+        <v>2729</v>
       </c>
       <c r="EI10" t="n">
-        <v>733.8</v>
+        <v>863.4</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-58.8</v>
+        <v>79.2</v>
       </c>
       <c r="EK10" t="n">
-        <v>973.3</v>
+        <v>1115.6</v>
       </c>
       <c r="EL10" t="n">
-        <v>-783</v>
+        <v>-457.9</v>
       </c>
       <c r="EM10" t="n">
-        <v>1104.1</v>
+        <v>1244.1</v>
       </c>
       <c r="EN10" t="n">
-        <v>1637.6</v>
+        <v>1699.5</v>
       </c>
       <c r="EO10" t="n">
-        <v>-87.09999999999999</v>
+        <v>-25.3</v>
       </c>
       <c r="EP10" t="n">
-        <v>-673.2</v>
+        <v>-551.6</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-1928.7</v>
+        <v>-1924.7</v>
       </c>
       <c r="ER10" t="n">
-        <v>-296.6</v>
+        <v>-304</v>
       </c>
       <c r="ES10" t="n">
-        <v>-330.4</v>
+        <v>-240.8</v>
       </c>
       <c r="ET10" t="n">
-        <v>-325.8</v>
+        <v>-238.4</v>
       </c>
       <c r="EU10" t="n">
-        <v>223.5</v>
+        <v>239.5</v>
       </c>
       <c r="EV10" t="n">
-        <v>717.8</v>
+        <v>710.3</v>
       </c>
       <c r="EW10" t="n">
-        <v>-449.3</v>
+        <v>-422.5</v>
       </c>
       <c r="EX10" t="n">
-        <v>225.2</v>
+        <v>335.8</v>
       </c>
       <c r="EY10" t="n">
-        <v>1000.8</v>
+        <v>993.6</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1249.8</v>
+        <v>1215.9</v>
       </c>
       <c r="FA10" t="n">
-        <v>-253.3</v>
+        <v>-268.4</v>
       </c>
       <c r="FB10" t="n">
-        <v>1294.4</v>
+        <v>1386</v>
       </c>
       <c r="FC10" t="n">
-        <v>201.8</v>
+        <v>194</v>
       </c>
       <c r="FD10" t="n">
-        <v>-71</v>
+        <v>-69.40000000000001</v>
       </c>
       <c r="FE10" t="n">
-        <v>1581.9</v>
+        <v>1543.3</v>
       </c>
       <c r="FF10" t="n">
-        <v>244.3</v>
+        <v>338.1</v>
       </c>
       <c r="FG10" t="n">
-        <v>-1114.3</v>
+        <v>-1143.9</v>
       </c>
       <c r="FH10" t="n">
-        <v>1920.7</v>
+        <v>1895.9</v>
       </c>
       <c r="FI10" t="n">
-        <v>-1050.8</v>
+        <v>-1090.2</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-104.2</v>
+        <v>154.6</v>
       </c>
       <c r="FK10" t="n">
-        <v>236.4</v>
+        <v>390.6</v>
       </c>
       <c r="FL10" t="n">
-        <v>-1380.8</v>
+        <v>-1218.2</v>
       </c>
       <c r="FM10" t="n">
-        <v>-522.4</v>
+        <v>-250.5</v>
       </c>
       <c r="FN10" t="n">
-        <v>-2122.3</v>
+        <v>-1630.4</v>
       </c>
       <c r="FO10" t="n">
-        <v>-1449.7</v>
+        <v>-901.8</v>
       </c>
       <c r="FP10" t="n">
-        <v>151.6</v>
+        <v>223</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-2352.5</v>
+        <v>-2227.6</v>
       </c>
       <c r="FR10" t="n">
-        <v>28.6</v>
+        <v>1139.4</v>
       </c>
       <c r="FS10" t="n">
-        <v>-1656.2</v>
+        <v>-464</v>
       </c>
       <c r="FT10" t="n">
-        <v>-1420.3</v>
+        <v>-1192.5</v>
       </c>
       <c r="FU10" t="n">
-        <v>-2389.3</v>
+        <v>-2404.1</v>
       </c>
       <c r="FV10" t="n">
-        <v>-1583.2</v>
+        <v>-2332.2</v>
       </c>
       <c r="FW10" t="n">
-        <v>-454.6</v>
+        <v>-323.3</v>
       </c>
       <c r="FX10" t="n">
-        <v>-280.8</v>
+        <v>-1128.3</v>
       </c>
       <c r="FY10" t="n">
-        <v>-1845.8</v>
+        <v>-2402</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-1788.2</v>
+        <v>-1238.1</v>
       </c>
       <c r="GA10" t="n">
-        <v>-1567.9</v>
+        <v>-1249</v>
       </c>
       <c r="GB10" t="n">
-        <v>-2160.1</v>
+        <v>-2078.9</v>
       </c>
       <c r="GC10" t="n">
-        <v>-1900.5</v>
+        <v>-2269.4</v>
       </c>
       <c r="GD10" t="n">
-        <v>-2065.1</v>
+        <v>-2431.7</v>
       </c>
       <c r="GE10" t="n">
-        <v>-2014.4</v>
+        <v>-2365.9</v>
       </c>
       <c r="GF10" t="n">
-        <v>-463</v>
+        <v>-1925.3</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>2243.6</v>
       </c>
     </row>
   </sheetData>
